--- a/datos/datos_extraidos.xlsx
+++ b/datos/datos_extraidos.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Datos Extraídos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,9 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -38,27 +37,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -71,19 +55,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -446,639 +426,215 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="16" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="15" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="26" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="8"/>
+    <col width="31" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
-    <col width="24" customWidth="1" min="11" max="11"/>
-    <col width="12" customWidth="1" min="12" max="12"/>
-    <col width="21" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="11" customWidth="1" min="16" max="17"/>
-    <col width="11" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="21" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="17" max="17"/>
+    <col width="12" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>NUM_CEDULA</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>NOMBRES</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>APELLIDOS</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>FECHA_LUGAR_EXPEDICION</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CLASE_VEHICULO</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>PLACA</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MODELO</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>SERVICIO</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>MARCA</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>LÍNEA</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>CILINDRAJE</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>VEHICULO_NUEVO(0KM)</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>DEP_CIRCULACION</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>CIUDAD_CIRCULACIÓN</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>GÉNERO</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>B.ONEROSO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>1.087.985.773</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>CARLOS ALBERTO</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>LADINO OCAMPO</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>17-JUN-2004</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>11-JUL-2022 DOSQUEBRADAS</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>carlosladino.iearm6@gmail.com</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>AUTOMOVIL</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>GTP296</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>PARTICULAR</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>KIA</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>PICANTO</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>1.248</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
-        <is>
-          <t>Santander</t>
-        </is>
-      </c>
-      <c r="O2" s="4" t="inlineStr">
-        <is>
-          <t>Barrancabermeja</t>
-        </is>
-      </c>
-      <c r="P2" s="4" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="Q2" s="4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>1.087.985.773</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>CARLOS ALBERTO</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>LADINO OCAMPO</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>17-JUN-2004</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>11-JUL-2022 DOSQUEBRADAS</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>AUTOMOVIL</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>PEX184</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>PARTICULAR</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>MAZDA</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>DEM3M</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>1.300</t>
-        </is>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>Antioquia</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
-        <is>
-          <t>Itagüí</t>
-        </is>
-      </c>
-      <c r="P3" s="4" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="Q3" s="4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>1.087.985.773</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>CARLOS ALBERTO</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>LADINO OCAMPO</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>17-JUN-2004</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>11-JUL-2022 DOSQUEBRADAS</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>AUTOMOVIL</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>KOY385</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>PARTICULAR</t>
-        </is>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>SUZUKI</t>
-        </is>
-      </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>BALENO AT</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>1.373</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>Antioquia</t>
-        </is>
-      </c>
-      <c r="O4" s="4" t="inlineStr">
-        <is>
-          <t>Medellín</t>
-        </is>
-      </c>
-      <c r="P4" s="4" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>Girardota</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>FEMENINO</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>1.087.985.773</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>CARLOS ALBERTO</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>LADINO OCAMPO</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>17-JUN-2004</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>11-JUL-2022 DOSQUEBRADAS</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>MOTOCICLETA</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>WCL33C</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>PARTICULAR</t>
-        </is>
-      </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>MRCA</t>
-        </is>
-      </c>
-      <c r="K5" s="4" t="inlineStr">
-        <is>
-          <t>AKT UNeA AD 12 W Modeo</t>
-        </is>
-      </c>
-      <c r="L5" s="4" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="M5" s="4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N5" s="4" t="inlineStr">
-        <is>
-          <t>Atlántico</t>
-        </is>
-      </c>
-      <c r="O5" s="4" t="inlineStr">
-        <is>
-          <t>Malambo</t>
-        </is>
-      </c>
-      <c r="P5" s="4" t="inlineStr">
-        <is>
-          <t>FEMENINO</t>
-        </is>
-      </c>
-      <c r="Q5" s="4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>1.087.985.773</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>CARLOS ALBERTO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>LADINO OCAMPO</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>17-JUN-2004</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>11-JUL-2022 DOSQUEBRADAS</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>MOTOCICLETA</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>QLK29C</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>PARTICULAR</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>YAMAHA</t>
-        </is>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
-        <is>
-          <t>FZI6</t>
-        </is>
-      </c>
-      <c r="L6" s="4" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="M6" s="4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N6" s="4" t="inlineStr">
-        <is>
-          <t>Sucre</t>
-        </is>
-      </c>
-      <c r="O6" s="4" t="inlineStr">
-        <is>
-          <t>Sincelejo</t>
-        </is>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="Q6" s="4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>1.087.985.773</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>CARLOS ALBERTO</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>LADINO OCAMPO</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>17-JUN-2004</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>11-JUL-2022 DOSQUEBRADAS</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>AUTOMOVIL</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>DKS556</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>PARTICULAR</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>RENAULT</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>LOGAN EXPRESSION</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>1.598</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Antioquia</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>Itagüí</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>DAVIVIENDA</t>
         </is>
       </c>
     </row>

--- a/datos/datos_extraidos.xlsx
+++ b/datos/datos_extraidos.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Datos Extraídos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
     <col width="21" customWidth="1" min="14" max="14"/>
     <col width="17" customWidth="1" min="15" max="15"/>
     <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="10" customWidth="1" min="17" max="17"/>
+    <col width="11" customWidth="1" min="17" max="17"/>
     <col width="12" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
@@ -619,20 +619,112 @@
       </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
-          <t>Antioquia</t>
+          <t>Risaralda</t>
         </is>
       </c>
       <c r="P2" s="2" t="inlineStr">
         <is>
-          <t>Girardota</t>
+          <t>Dosquebradas</t>
         </is>
       </c>
       <c r="Q2" s="2" t="inlineStr">
         <is>
-          <t>FEMENINO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>1.087.985.773</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>CARLOS ALBERTO</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>LADINO OCAMPO</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>17-JUN-2004</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>11-JUL-2022 DOSQUEBRADAS</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>carlosladino.iearm6@gmail.com</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>AUTOMOVIL</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>GTP296</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>PARTICULAR</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>PICANTO</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>1.248</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>Risaralda</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>DAVIVIENDA</t>
         </is>

--- a/datos/datos_extraidos.xlsx
+++ b/datos/datos_extraidos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,24 +434,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="26" customWidth="1" min="5" max="5"/>
-    <col width="31" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="29" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="12" customWidth="1" min="13" max="13"/>
     <col width="21" customWidth="1" min="14" max="14"/>
     <col width="17" customWidth="1" min="15" max="15"/>
     <col width="20" customWidth="1" min="16" max="16"/>
     <col width="11" customWidth="1" min="17" max="17"/>
-    <col width="12" customWidth="1" min="18" max="18"/>
+    <col width="11" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -549,67 +549,67 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>1.087.985.773</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>CARLOS ALBERTO</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>LADINO OCAMPO</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>17-JUN-2004</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>11-JUL-2022 DOSQUEBRADAS</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>carlosladino.iearm6@gmail.com</t>
+          <t>practicante@correseguros.co</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>AUTOMOVIL</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>GTP296</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>PARTICULAR</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>PICANTO</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M2" s="2" t="inlineStr">
         <is>
-          <t>1.248</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N2" s="2" t="inlineStr">
@@ -619,17 +619,17 @@
       </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
-          <t>Risaralda</t>
+          <t>Atlántico</t>
         </is>
       </c>
       <c r="P2" s="2" t="inlineStr">
         <is>
-          <t>Dosquebradas</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="Q2" s="2" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMENINO</t>
         </is>
       </c>
       <c r="R2" s="2" t="inlineStr">
@@ -641,67 +641,67 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>1.087.985.773</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>CARLOS ALBERTO</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>LADINO OCAMPO</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>17-JUN-2004</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>11-JUL-2022 DOSQUEBRADAS</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>carlosladino.iearm6@gmail.com</t>
+          <t>practicante@correseguros.co</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>AUTOMOVIL</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>GTP296</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>PARTICULAR</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>PICANTO</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M3" s="2" t="inlineStr">
         <is>
-          <t>1.248</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N3" s="2" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="O3" s="2" t="inlineStr">
         <is>
-          <t>Risaralda</t>
+          <t>Atlántico</t>
         </is>
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="Q3" s="2" t="inlineStr">
@@ -726,7 +726,99 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
-          <t>DAVIVIENDA</t>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>practicante@correseguros.co</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>Atlántico</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/datos/datos_extraidos.xlsx
+++ b/datos/datos_extraidos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Datos Extraídos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Datos Extraídos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="17" customWidth="1" min="15" max="15"/>
     <col width="20" customWidth="1" min="16" max="16"/>
     <col width="11" customWidth="1" min="17" max="17"/>
-    <col width="11" customWidth="1" min="18" max="18"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -819,6 +819,98 @@
       <c r="R4" s="2" t="inlineStr">
         <is>
           <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>practicante@correseguros.co</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>Antioquia</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>FINANCIACION AMIGA S.A.S.</t>
         </is>
       </c>
     </row>
